--- a/sprints/Sprint 2/Sprint 2 Backlog  Burndown.xlsx
+++ b/sprints/Sprint 2/Sprint 2 Backlog  Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipai/Documents/GitHub/UWG-CS3985-Fall2021-Group5/sprints/Sprint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70716C91-6B72-0240-9E9D-E5702AF81B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D295F-5FC7-5B48-A40E-624E9C46912E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Related User Story</t>
   </si>
@@ -69,9 +69,6 @@
     <t>As a Medical Personnel, I want to niew patient medical conditions in record and history, So that I can give my suggestion and make  a medical plan for patient based on history and record</t>
   </si>
   <si>
-    <t>As a Medical Personnel, I want to add prescription, So that patient can add it for medications</t>
-  </si>
-  <si>
     <t>As a Medical Personnel, I want to mange appointments, So that I can deal with conflicting events that may arise</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>Add functions that allow medical personnel give their suggestion with associated UI, and tests</t>
-  </si>
-  <si>
-    <t>Add functtion that allow maedical personnel to add prescription with associated UI, and tests</t>
   </si>
   <si>
     <t>Make appointment view UI</t>
@@ -321,21 +315,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$G$15</c:f>
+              <c:f>Sheet1!$C$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1088,7 +1082,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1380,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1454,7 +1448,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1477,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1498,7 +1492,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1521,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1533,27 +1527,25 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1565,7 +1557,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1574,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1584,21 +1576,23 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1609,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1621,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1632,16 +1626,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1655,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1674,50 +1668,27 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(C3:C13)</f>
         <v>27</v>
       </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3">
-        <f>SUM(C3:C14)</f>
-        <v>31</v>
-      </c>
-      <c r="D15" s="3">
-        <f>SUM(D3:D14)</f>
-        <v>28</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUM(E3:E14)</f>
-        <v>23</v>
-      </c>
-      <c r="F15" s="3">
-        <f>SUM(F3:F14)</f>
-        <v>7</v>
-      </c>
-      <c r="G15" s="3">
-        <f>SUM(G3:G14)</f>
+      <c r="D14" s="3">
+        <f>SUM(D3:D13)</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM(E3:E13)</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <f>SUM(F3:F13)</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <f>SUM(G3:G13)</f>
         <v>0</v>
       </c>
     </row>
